--- a/src/test/resources/ReframeTestdata.xlsx
+++ b/src/test/resources/ReframeTestdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\Amplify\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\Reframe\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A8C93-EB0D-493E-8CBE-412D33033129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200A9BD-20F2-4CE4-8108-C301975C0FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87F6A5CC-70FA-4D56-9478-BCA61617E0BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="60">
   <si>
     <t>David</t>
   </si>
@@ -51,16 +51,189 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>trst@test1.com</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +256,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,15 +598,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FC819B-F416-4661-8898-B9954BEB0C08}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
@@ -446,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="D1">
-        <v>511207946</v>
+        <v>511207948</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -467,7 +646,1613 @@
         <v>458</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>877871233</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>2345645467</v>
+      </c>
+      <c r="H2">
+        <v>4746464774</v>
+      </c>
+      <c r="I2">
+        <v>234</v>
+      </c>
+      <c r="J2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>877871235</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>2345645467</v>
+      </c>
+      <c r="H3">
+        <v>4746464774</v>
+      </c>
+      <c r="I3">
+        <v>234</v>
+      </c>
+      <c r="J3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>877871236</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>2345645467</v>
+      </c>
+      <c r="H4">
+        <v>4746464774</v>
+      </c>
+      <c r="I4">
+        <v>234</v>
+      </c>
+      <c r="J4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>877871237</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>2345645467</v>
+      </c>
+      <c r="H5">
+        <v>4746464774</v>
+      </c>
+      <c r="I5">
+        <v>234</v>
+      </c>
+      <c r="J5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>877871238</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>2345645467</v>
+      </c>
+      <c r="H6">
+        <v>4746464774</v>
+      </c>
+      <c r="I6">
+        <v>234</v>
+      </c>
+      <c r="J6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>877871239</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>2345645467</v>
+      </c>
+      <c r="H7">
+        <v>4746464774</v>
+      </c>
+      <c r="I7">
+        <v>234</v>
+      </c>
+      <c r="J7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>877871240</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>2345645467</v>
+      </c>
+      <c r="H8">
+        <v>4746464774</v>
+      </c>
+      <c r="I8">
+        <v>234</v>
+      </c>
+      <c r="J8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>877871241</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>2345645467</v>
+      </c>
+      <c r="H9">
+        <v>4746464774</v>
+      </c>
+      <c r="I9">
+        <v>234</v>
+      </c>
+      <c r="J9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>877871242</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>2345645467</v>
+      </c>
+      <c r="H10">
+        <v>4746464774</v>
+      </c>
+      <c r="I10">
+        <v>234</v>
+      </c>
+      <c r="J10">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>877871243</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>2345645467</v>
+      </c>
+      <c r="H11">
+        <v>4746464774</v>
+      </c>
+      <c r="I11">
+        <v>234</v>
+      </c>
+      <c r="J11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>877871244</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>2345645467</v>
+      </c>
+      <c r="H12">
+        <v>4746464774</v>
+      </c>
+      <c r="I12">
+        <v>234</v>
+      </c>
+      <c r="J12">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>877871245</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>2345645467</v>
+      </c>
+      <c r="H13">
+        <v>4746464774</v>
+      </c>
+      <c r="I13">
+        <v>234</v>
+      </c>
+      <c r="J13">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>877871246</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>2345645467</v>
+      </c>
+      <c r="H14">
+        <v>4746464774</v>
+      </c>
+      <c r="I14">
+        <v>234</v>
+      </c>
+      <c r="J14">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>877871247</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>2345645467</v>
+      </c>
+      <c r="H15">
+        <v>4746464774</v>
+      </c>
+      <c r="I15">
+        <v>234</v>
+      </c>
+      <c r="J15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>877871248</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>2345645467</v>
+      </c>
+      <c r="H16">
+        <v>4746464774</v>
+      </c>
+      <c r="I16">
+        <v>234</v>
+      </c>
+      <c r="J16">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>877871249</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>2345645467</v>
+      </c>
+      <c r="H17">
+        <v>4746464774</v>
+      </c>
+      <c r="I17">
+        <v>234</v>
+      </c>
+      <c r="J17">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>877871250</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>2345645467</v>
+      </c>
+      <c r="H18">
+        <v>4746464774</v>
+      </c>
+      <c r="I18">
+        <v>234</v>
+      </c>
+      <c r="J18">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>877871251</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>2345645467</v>
+      </c>
+      <c r="H19">
+        <v>4746464774</v>
+      </c>
+      <c r="I19">
+        <v>234</v>
+      </c>
+      <c r="J19">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>877871252</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>2345645467</v>
+      </c>
+      <c r="H20">
+        <v>4746464774</v>
+      </c>
+      <c r="I20">
+        <v>234</v>
+      </c>
+      <c r="J20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>877871253</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21">
+        <v>2345645467</v>
+      </c>
+      <c r="H21">
+        <v>4746464774</v>
+      </c>
+      <c r="I21">
+        <v>234</v>
+      </c>
+      <c r="J21">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>877871254</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22">
+        <v>2345645467</v>
+      </c>
+      <c r="H22">
+        <v>4746464774</v>
+      </c>
+      <c r="I22">
+        <v>234</v>
+      </c>
+      <c r="J22">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>877871255</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>2345645467</v>
+      </c>
+      <c r="H23">
+        <v>4746464774</v>
+      </c>
+      <c r="I23">
+        <v>234</v>
+      </c>
+      <c r="J23">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>877871256</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>2345645467</v>
+      </c>
+      <c r="H24">
+        <v>4746464774</v>
+      </c>
+      <c r="I24">
+        <v>234</v>
+      </c>
+      <c r="J24">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>877871257</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>2345645467</v>
+      </c>
+      <c r="H25">
+        <v>4746464774</v>
+      </c>
+      <c r="I25">
+        <v>234</v>
+      </c>
+      <c r="J25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>877871258</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26">
+        <v>2345645467</v>
+      </c>
+      <c r="H26">
+        <v>4746464774</v>
+      </c>
+      <c r="I26">
+        <v>234</v>
+      </c>
+      <c r="J26">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>877871259</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27">
+        <v>2345645467</v>
+      </c>
+      <c r="H27">
+        <v>4746464774</v>
+      </c>
+      <c r="I27">
+        <v>234</v>
+      </c>
+      <c r="J27">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>877871260</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>2345645467</v>
+      </c>
+      <c r="H28">
+        <v>4746464774</v>
+      </c>
+      <c r="I28">
+        <v>234</v>
+      </c>
+      <c r="J28">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>877871261</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29">
+        <v>2345645467</v>
+      </c>
+      <c r="H29">
+        <v>4746464774</v>
+      </c>
+      <c r="I29">
+        <v>234</v>
+      </c>
+      <c r="J29">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>877871262</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30">
+        <v>2345645467</v>
+      </c>
+      <c r="H30">
+        <v>4746464774</v>
+      </c>
+      <c r="I30">
+        <v>234</v>
+      </c>
+      <c r="J30">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>877871263</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31">
+        <v>2345645467</v>
+      </c>
+      <c r="H31">
+        <v>4746464774</v>
+      </c>
+      <c r="I31">
+        <v>234</v>
+      </c>
+      <c r="J31">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>877871264</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32">
+        <v>2345645467</v>
+      </c>
+      <c r="H32">
+        <v>4746464774</v>
+      </c>
+      <c r="I32">
+        <v>234</v>
+      </c>
+      <c r="J32">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>877871265</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33">
+        <v>2345645467</v>
+      </c>
+      <c r="H33">
+        <v>4746464774</v>
+      </c>
+      <c r="I33">
+        <v>234</v>
+      </c>
+      <c r="J33">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>877871266</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34">
+        <v>2345645467</v>
+      </c>
+      <c r="H34">
+        <v>4746464774</v>
+      </c>
+      <c r="I34">
+        <v>234</v>
+      </c>
+      <c r="J34">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>877871267</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35">
+        <v>2345645467</v>
+      </c>
+      <c r="H35">
+        <v>4746464774</v>
+      </c>
+      <c r="I35">
+        <v>234</v>
+      </c>
+      <c r="J35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>877871268</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36">
+        <v>2345645467</v>
+      </c>
+      <c r="H36">
+        <v>4746464774</v>
+      </c>
+      <c r="I36">
+        <v>234</v>
+      </c>
+      <c r="J36">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>877871269</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37">
+        <v>2345645467</v>
+      </c>
+      <c r="H37">
+        <v>4746464774</v>
+      </c>
+      <c r="I37">
+        <v>234</v>
+      </c>
+      <c r="J37">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>877871270</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>2345645467</v>
+      </c>
+      <c r="H38">
+        <v>4746464774</v>
+      </c>
+      <c r="I38">
+        <v>234</v>
+      </c>
+      <c r="J38">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>877871271</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>2345645467</v>
+      </c>
+      <c r="H39">
+        <v>4746464774</v>
+      </c>
+      <c r="I39">
+        <v>234</v>
+      </c>
+      <c r="J39">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>877871272</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40">
+        <v>2345645467</v>
+      </c>
+      <c r="H40">
+        <v>4746464774</v>
+      </c>
+      <c r="I40">
+        <v>234</v>
+      </c>
+      <c r="J40">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>877871273</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41">
+        <v>2345645467</v>
+      </c>
+      <c r="H41">
+        <v>4746464774</v>
+      </c>
+      <c r="I41">
+        <v>234</v>
+      </c>
+      <c r="J41">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>877871274</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42">
+        <v>2345645467</v>
+      </c>
+      <c r="H42">
+        <v>4746464774</v>
+      </c>
+      <c r="I42">
+        <v>234</v>
+      </c>
+      <c r="J42">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>877871275</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43">
+        <v>2345645467</v>
+      </c>
+      <c r="H43">
+        <v>4746464774</v>
+      </c>
+      <c r="I43">
+        <v>234</v>
+      </c>
+      <c r="J43">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>877871276</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44">
+        <v>2345645467</v>
+      </c>
+      <c r="H44">
+        <v>4746464774</v>
+      </c>
+      <c r="I44">
+        <v>234</v>
+      </c>
+      <c r="J44">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>877871277</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45">
+        <v>2345645467</v>
+      </c>
+      <c r="H45">
+        <v>4746464774</v>
+      </c>
+      <c r="I45">
+        <v>234</v>
+      </c>
+      <c r="J45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>877871278</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46">
+        <v>2345645467</v>
+      </c>
+      <c r="H46">
+        <v>4746464774</v>
+      </c>
+      <c r="I46">
+        <v>234</v>
+      </c>
+      <c r="J46">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>877871279</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47">
+        <v>2345645467</v>
+      </c>
+      <c r="H47">
+        <v>4746464774</v>
+      </c>
+      <c r="I47">
+        <v>234</v>
+      </c>
+      <c r="J47">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>877871280</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48">
+        <v>2345645467</v>
+      </c>
+      <c r="H48">
+        <v>4746464774</v>
+      </c>
+      <c r="I48">
+        <v>234</v>
+      </c>
+      <c r="J48">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>877871281</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49">
+        <v>2345645467</v>
+      </c>
+      <c r="H49">
+        <v>4746464774</v>
+      </c>
+      <c r="I49">
+        <v>234</v>
+      </c>
+      <c r="J49">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>877871282</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50">
+        <v>2345645467</v>
+      </c>
+      <c r="H50">
+        <v>4746464774</v>
+      </c>
+      <c r="I50">
+        <v>234</v>
+      </c>
+      <c r="J50">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>877871283</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51">
+        <v>2345645467</v>
+      </c>
+      <c r="H51">
+        <v>4746464774</v>
+      </c>
+      <c r="I51">
+        <v>234</v>
+      </c>
+      <c r="J51">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D28F67F4-5639-4F6F-9E6D-0A77FA192A8E}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{DBB66D80-79AA-4C13-9DF3-F2268E7BA222}"/>
+    <hyperlink ref="E3:E51" r:id="rId3" display="trst@test1.com" xr:uid="{5156FFAE-73BD-46CD-84D2-EE32B5E11F21}"/>
+    <hyperlink ref="F3:F51" r:id="rId4" display="test@test.com" xr:uid="{9802E80B-69EF-4CC1-8A58-98A3DFA20C57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ReframeTestdata.xlsx
+++ b/src/test/resources/ReframeTestdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MariiaCherniak\Documents\GitHub\Reframe\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200A9BD-20F2-4CE4-8108-C301975C0FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801827F-568C-48C1-8E7F-8F864CCCAAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87F6A5CC-70FA-4D56-9478-BCA61617E0BB}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="D1">
-        <v>511207948</v>
+        <v>511207949</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
